--- a/project/Sprint01.xlsx
+++ b/project/Sprint01.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7770" tabRatio="725"/>
   </bookViews>
   <sheets>
-    <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
+    <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Burndown Chart" sheetId="11" r:id="rId2"/>
     <sheet name="Member1 Sprint" sheetId="3" r:id="rId3"/>
     <sheet name="Member 2 Sprint" sheetId="5" r:id="rId4"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t xml:space="preserve">Product backlog item  </t>
   </si>
@@ -95,19 +95,67 @@
     <t>Ideal Person Hours</t>
   </si>
   <si>
-    <t>Issue #</t>
-  </si>
-  <si>
-    <t>Thing I'm trying to accomplish</t>
-  </si>
-  <si>
-    <t>Other Thing I'm trying to accomplish</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
     <t>Just copy a row to make a new one</t>
+  </si>
+  <si>
+    <t>Term Paper</t>
+  </si>
+  <si>
+    <t>Pick a Paper</t>
+  </si>
+  <si>
+    <t>Daniela</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Coordinate Papers</t>
+  </si>
+  <si>
+    <t>Issue 1</t>
+  </si>
+  <si>
+    <t>Research WebGL</t>
+  </si>
+  <si>
+    <t>Draw some lines and circles</t>
+  </si>
+  <si>
+    <t>Document findings</t>
+  </si>
+  <si>
+    <t>Issue 2</t>
+  </si>
+  <si>
+    <t>Research WebSockets</t>
+  </si>
+  <si>
+    <t>Implement a simple client</t>
+  </si>
+  <si>
+    <t>Implement a simple server</t>
+  </si>
+  <si>
+    <t>Issue 3</t>
+  </si>
+  <si>
+    <t>Research SpringBoot</t>
+  </si>
+  <si>
+    <t>Create simple application</t>
+  </si>
+  <si>
+    <t>Team</t>
+  </si>
+  <si>
+    <t>Assist</t>
+  </si>
+  <si>
+    <t>Totals</t>
   </si>
 </sst>
 </file>
@@ -391,7 +439,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burn Down Chart'!$C$2</c:f>
+              <c:f>Overview!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -414,7 +462,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burn Down Chart'!$D$1:$K$1</c:f>
+              <c:f>Overview!$D$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -446,33 +494,33 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down Chart'!$D$2:$K$2</c:f>
+              <c:f>Overview!$D$2:$K$2</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -489,7 +537,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Burn Down Chart'!$C$3</c:f>
+              <c:f>Overview!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -512,7 +560,7 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Burn Down Chart'!$D$1:$K$1</c:f>
+              <c:f>Overview!$D$1:$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -544,30 +592,30 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Burn Down Chart'!$D$3:$K$3</c:f>
+              <c:f>Overview!$D$3:$K$3</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>116</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99.428571428571431</c:v>
+                  <c:v>20.571428571428573</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>82.857142857142861</c:v>
+                  <c:v>17.142857142857146</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>66.285714285714292</c:v>
+                  <c:v>13.714285714285717</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49.714285714285722</c:v>
+                  <c:v>10.285714285714288</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>33.142857142857153</c:v>
+                  <c:v>6.8571428571428594</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16.57142857142858</c:v>
+                  <c:v>3.428571428571431</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -1657,10 +1705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,7 +1768,7 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="26" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B2" s="26"/>
       <c r="C2" s="23" t="s">
@@ -1728,35 +1776,35 @@
       </c>
       <c r="D2" s="24">
         <f>SUM(D$4:D$1000)</f>
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="E2" s="25">
         <f>SUM(E$4:E$1000)</f>
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="F2" s="25">
         <f t="shared" ref="F2:K2" si="0">SUM(F$4:F$1000)</f>
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="G2" s="25">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="H2" s="25">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="I2" s="25">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="J2" s="25">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="K2" s="25">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1767,581 +1815,689 @@
       </c>
       <c r="D3" s="24">
         <f>D2</f>
-        <v>116</v>
+        <v>24</v>
       </c>
       <c r="E3" s="25">
-        <f>D$3-$D$2/7</f>
-        <v>99.428571428571431</v>
+        <f t="shared" ref="E3:K3" si="1">D$3-$D$2/7</f>
+        <v>20.571428571428573</v>
       </c>
       <c r="F3" s="25">
-        <f>E$3-$D$2/7</f>
-        <v>82.857142857142861</v>
+        <f t="shared" si="1"/>
+        <v>17.142857142857146</v>
       </c>
       <c r="G3" s="25">
-        <f>F$3-$D$2/7</f>
-        <v>66.285714285714292</v>
+        <f t="shared" si="1"/>
+        <v>13.714285714285717</v>
       </c>
       <c r="H3" s="25">
-        <f>G$3-$D$2/7</f>
-        <v>49.714285714285722</v>
+        <f t="shared" si="1"/>
+        <v>10.285714285714288</v>
       </c>
       <c r="I3" s="25">
-        <f>H$3-$D$2/7</f>
-        <v>33.142857142857153</v>
+        <f t="shared" si="1"/>
+        <v>6.8571428571428594</v>
       </c>
       <c r="J3" s="25">
-        <f>I$3-$D$2/7</f>
-        <v>16.57142857142858</v>
+        <f t="shared" si="1"/>
+        <v>3.428571428571431</v>
       </c>
       <c r="K3" s="25">
-        <f>J$3-$D$2/7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
       <c r="D4" s="2">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <f>D4</f>
-        <v>8</v>
+        <f t="shared" ref="E4:E18" si="2">D4</f>
+        <v>1</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:K4" si="1">E4</f>
-        <v>8</v>
+        <f t="shared" ref="F4:K4" si="3">E4</f>
+        <v>1</v>
       </c>
       <c r="G4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="I4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4">
+        <f>SUMIF(C4:C18, L4, D4:D18)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="22" t="s">
         <v>25</v>
       </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <f>D5</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F2:K16" si="2">E5</f>
-        <v>9</v>
+        <f t="shared" ref="F5:F6" si="4">E5</f>
+        <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="G5:G6" si="5">F5</f>
+        <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="H5:H6" si="6">G5</f>
+        <v>1</v>
       </c>
       <c r="I5">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="I5:I6" si="7">H5</f>
+        <v>1</v>
       </c>
       <c r="J5">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="J5:J6" si="8">I5</f>
+        <v>1</v>
       </c>
       <c r="K5">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="K5:K6" si="9">J5</f>
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5">
+        <f>SUMIF(C5:C19, L5, D5:D19)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
+      <c r="B6" s="9" t="s">
+        <v>26</v>
+      </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <f>D6</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F6">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="5"/>
+        <v>1</v>
       </c>
       <c r="H6">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="6"/>
+        <v>1</v>
       </c>
       <c r="I6">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="7"/>
+        <v>1</v>
       </c>
       <c r="J6">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="8"/>
+        <v>1</v>
       </c>
       <c r="K6">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6">
+        <f>SUMIF(C6:C20, L6, D6:D20)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
       <c r="D7" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <f>D7</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" ref="F5:K18" si="10">E7</f>
+        <v>1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K7">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" s="2">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E8">
-        <f>D8</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="F8">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="H8">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="I8">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="J8">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
       <c r="K8">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E9">
-        <f>D9</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F9">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="H9">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="I9">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="J9">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="K9">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <f>D10</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K10">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="E11">
-        <f>D11</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
       <c r="F11">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="G11">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="H11">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="I11">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <f>D12</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F12">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G12">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H12">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I12">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J12">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <f>D13</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F13">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G13">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H13">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I13">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J13">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K13">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D14" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <f>D14</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
       <c r="D15" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <f>D15</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="H15">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="I15">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="J15">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
       <c r="K15">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="10"/>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
       <c r="D16" s="2">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="E16">
-        <f>D16</f>
-        <v>9</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
       <c r="F16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="10"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/project/Sprint01.xlsx
+++ b/project/Sprint01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmiele\Documents\Masters\CSE551\CSE551\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\masters\cse551\CSE551\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -517,10 +517,10 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>24</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1708,7 +1708,7 @@
   <dimension ref="A1:P18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1800,11 +1800,11 @@
       </c>
       <c r="J2" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="K2" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1883,12 +1883,11 @@
         <v>1</v>
       </c>
       <c r="J4">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K4">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="L4" t="s">
         <v>23</v>
@@ -2014,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F5:K18" si="10">E7</f>
+        <f t="shared" ref="F7:K18" si="10">E7</f>
         <v>1</v>
       </c>
       <c r="G7">

--- a/project/Sprint01.xlsx
+++ b/project/Sprint01.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Peter\Documents\masters\cse551\CSE551\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pmiele\Documents\Masters\CSE551\CSE551\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t xml:space="preserve">Product backlog item  </t>
   </si>
@@ -156,13 +156,17 @@
   </si>
   <si>
     <t>Totals</t>
+  </si>
+  <si>
+    <t>Team ended up catching the flu-like bug over the weekend and little work actually got done.
+Going to carry over objectives from this sprint to next sprint and do some weekend meetup time to catch up.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,8 +237,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +276,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -274,11 +290,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -342,9 +374,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="1" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -511,16 +548,16 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>24</c:v>
+                  <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>24</c:v>
+                  <c:v>21.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>23.5</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1705,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,19 +1829,19 @@
       </c>
       <c r="H2" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23.5</v>
       </c>
       <c r="I2" s="25">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21.5</v>
       </c>
       <c r="J2" s="25">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>22</v>
       </c>
       <c r="K2" s="25">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1923,20 +1960,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <f t="shared" ref="H5:H6" si="6">G5</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I6" si="7">H5</f>
-        <v>1</v>
+        <f t="shared" ref="I5:I6" si="6">H5</f>
+        <v>0.5</v>
       </c>
       <c r="J5">
-        <f t="shared" ref="J5:J6" si="8">I5</f>
-        <v>1</v>
+        <f t="shared" ref="J5:J6" si="7">I5</f>
+        <v>0.5</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K6" si="9">J5</f>
-        <v>1</v>
+        <f t="shared" ref="K5:K6" si="8">J5</f>
+        <v>0.5</v>
       </c>
       <c r="L5" t="s">
         <v>28</v>
@@ -1972,19 +2008,19 @@
         <v>1</v>
       </c>
       <c r="H6">
+        <f t="shared" ref="H5:H6" si="9">G6</f>
+        <v>1</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <f t="shared" si="8"/>
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="L6" t="s">
@@ -2067,16 +2103,15 @@
         <v>4</v>
       </c>
       <c r="I8">
-        <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <f t="shared" si="10"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -2197,12 +2232,11 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K11">
         <f t="shared" si="10"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -2499,12 +2533,50 @@
         <v>1</v>
       </c>
     </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="27"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="27"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="27"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="27"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="27"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:B3"/>
+    <mergeCell ref="A19:E23"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C18 C24">
       <formula1>"Peter, Daniela, Jennifer"</formula1>
     </dataValidation>
   </dataValidations>
